--- a/template_export.xlsx
+++ b/template_export.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\openserver\domains\scrapping-brain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OSPanel\domains\scrapping-brain\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Артикул</t>
   </si>
@@ -130,19 +135,23 @@
   </si>
   <si>
     <t>Позиція</t>
-  </si>
-  <si>
-    <t>Мета: _last_editor_used_jetpack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -163,20 +172,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Звичайний 2" xfId="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -199,44 +213,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -266,12 +280,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -310,303 +324,273 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AK1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" customWidth="1"/>
+    <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:37" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>